--- a/docs/source/recursos/milpa_apic/tabla_def_api_25feb21.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_def_api_25feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEBEB508-3B04-4728-B245-903F0F6031D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067BD78-6787-4D85-AEFA-2D1BDDC78CF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="-1995" windowWidth="16260" windowHeight="13950" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="20880" yWindow="-1950" windowWidth="16260" windowHeight="13950" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA0FB65-849C-4571-9395-41AA34CD8565}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/source/recursos/milpa_apic/tabla_def_api_25feb21.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_def_api_25feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0067BD78-6787-4D85-AEFA-2D1BDDC78CF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0131B-AE80-408F-AB50-621110EC6397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="-1950" windowWidth="16260" windowHeight="13950" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="34530" yWindow="-1500" windowWidth="14580" windowHeight="13980" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -180,8 +180,20 @@
     <t>Porcentaje de la población de 3 años y más que habla una lengua indígena en el municipio.</t>
   </si>
   <si>
+    <t>Atributos asociados a las propiedades biológicas y del ambiente.</t>
+  </si>
+  <si>
+    <t>Atributos asociados al acceso de insumos, distribución de productos y centros de acopio.</t>
+  </si>
+  <si>
+    <t>Atributos que describen características sociales del territorio.</t>
+  </si>
+  <si>
+    <t>Distancia a poblaciones para el acceso a insumos, recursos, herramientas y centros de acopio. Existencia de grupos organizados de mercado.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Precipitación </t>
+      <t xml:space="preserve">Precipitación promedio del mes </t>
     </r>
     <r>
       <rPr>
@@ -200,20 +212,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(estiaje)</t>
+      <t>(temporada de estiaje)</t>
     </r>
-  </si>
-  <si>
-    <t>Atributos asociados a las propiedades biológicas y del ambiente.</t>
-  </si>
-  <si>
-    <t>Atributos asociados al acceso de insumos, distribución de productos y centros de acopio.</t>
-  </si>
-  <si>
-    <t>Atributos que describen características sociales del territorio.</t>
-  </si>
-  <si>
-    <t>Distancia a poblaciones para el acceso a insumos, recursos, herramientas y centros de acopio. Existencia de grupos organizados de mercado.</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6">
         <v>0.68100000000000005</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6">
         <v>0.23599999999999999</v>
@@ -678,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6">
         <v>8.3000000000000004E-2</v>
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
         <v>0.2</v>
@@ -757,7 +757,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>0.5</v>

--- a/docs/source/recursos/milpa_apic/tabla_def_api_25feb21.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_def_api_25feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC0131B-AE80-408F-AB50-621110EC6397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FADE13-404D-4190-AC8A-3C81633EF349}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34530" yWindow="-1500" windowWidth="14580" windowHeight="13980" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="32655" yWindow="-675" windowWidth="14580" windowHeight="13980" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
